--- a/publipostage2/0495fxg12/liste_essais_cliniques_identifies_0495fxg12.xlsx
+++ b/publipostage2/0495fxg12/liste_essais_cliniques_identifies_0495fxg12.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/0495fxg12/liste_essais_cliniques_identifies_0495fxg12.xlsx
+++ b/publipostage2/0495fxg12/liste_essais_cliniques_identifies_0495fxg12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,32 +513,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT00210288</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>A Comparative Double Blind Placebo-Controlled Study of Immunogenicity and Safety of Two Doses 10^5 and 10^7 CFU of SC599 Oral Vaccine, a Live Attenuated Shigella Dysenteriae 1 Vaccine Strain in Healthy Human Adult Volunteers</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -552,36 +562,41 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT01699893</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Genetic &amp; Environmental Determinants Of Immune Phenotype Variance: Establishing A Path Towards Personalized Medicine</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>LabExMI</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
         <v>1</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -600,36 +615,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT01639391</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Creation of a Bank of Fibroblast From Patients With Amyotrophic Lateral Sclerosis: Pilot Study</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>ALSCELL</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -648,36 +668,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT01636544</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Infectious Aetiology of Potentially Malignant Disorders and Squamous Cell Carcinomas of the Oral Cavity</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>INECOC</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -696,36 +721,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT01988948</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Impact de la Vaccination Sur la Distribution Des génotypes de Papillomavirus (HPV) et Suivi de la Dynamique Intra-individuelle de l'Infection et Des Co-infections Dans Une Population d'étudiantes âgées de 18 à 20 Ans</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>DyPAVIR</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -744,36 +774,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT03282708</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Comparative Study of Captive Great Ape and Human Intestinal Microbiomes</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>SHAPES-CAP</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -792,36 +827,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT02789995</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Dysfunctions of Human Muscle Stem Cells in Sepsis</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>DISCUSS</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
         <v>1</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -840,36 +880,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT02761122</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Implication of Human Papillomavirus (HPV) in Lichen Physiopathology in Human</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>HPVLichen</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -888,36 +933,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT03210363</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Sero-epidemiology of Priority Arboviruses in French Guiana</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>EPI-ARBO</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -936,28 +986,30 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT04497298</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>A Randomized, Placebo-controlled Trial, to Evaluate the Safety and Immunogenicity of the COVID-19 Vaccine, a Measles Vector-based Vaccine Candidate Against COVID-19 in Healthy Volunteers Consisting of an Unblinded Dose Escalation and a Blinded Treatment Phase</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>COVID-19-101</t>
         </is>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
@@ -965,7 +1017,10 @@
       <c r="K11" t="b">
         <v>1</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -984,36 +1039,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT04490850</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>COVID-19 Seroprevalence Study in French Guiana</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>EPI-COVID-POP</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1032,36 +1092,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT03912246</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Collection d'échantillons Biologiques Humains de Sujets Sains et Malades Pour la Mise au Point et la Validation de Nouvelles méthodes de Diagnostic et Pour la réalisation d'Expertises Dans le Domaine Des Maladies Infectieuses et Tropicales</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>Diagmicoll</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1080,36 +1145,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT04328129</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Household Transmission Investigation Study for Coronavirus Disease 2019 (COVID-19) in Tropical Regions</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>EPI-COVID-19</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1128,28 +1198,30 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NCT02364492</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>An Open Label First-in-Human Adjuvant Phase I Study of a Synthetic Multiple Antigenic Glycopeptide Displaying a Tri Tn Glycotop (MAG-Tn3) Plus AS15, as a Therapeutic Vaccine Candidate in Patients With Non Metastatic, HER2 Negative Localized Breast Cancer at High-Risk of Relapse</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>MAGTRIVACSEIN</t>
         </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
       </c>
       <c r="J15" t="b">
         <v>1</v>
@@ -1157,7 +1229,10 @@
       <c r="K15" t="b">
         <v>1</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1176,36 +1251,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>NCT03219827</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Pilot Study: Characterization of the Immune Phenotype of Patients Allergic to Wasp Venom or Penicillin</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>WasPenIP</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1224,36 +1304,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>NCT04789928</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Gentamicine-EDTA, a New Anti-biofilm Strategy for the Conservative Treatment of Catheter-related Infections</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>CATH-GE</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>

--- a/publipostage2/0495fxg12/liste_essais_cliniques_identifies_0495fxg12.xlsx
+++ b/publipostage2/0495fxg12/liste_essais_cliniques_identifies_0495fxg12.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>🟩</t>
-  </si>
-  <si>
-    <t>noir</t>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📗</t>
+  </si>
+  <si>
+    <t>bleu</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/0495fxg12/liste_essais_cliniques_identifies_0495fxg12.xlsx
+++ b/publipostage2/0495fxg12/liste_essais_cliniques_identifies_0495fxg12.xlsx
@@ -55,13 +55,13 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📗</t>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>✅</t>
   </si>
   <si>
     <t>bleu</t>

--- a/publipostage2/0495fxg12/liste_essais_cliniques_identifies_0495fxg12.xlsx
+++ b/publipostage2/0495fxg12/liste_essais_cliniques_identifies_0495fxg12.xlsx
@@ -64,7 +64,7 @@
     <t>✅</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>rouge</t>
@@ -73,13 +73,13 @@
     <t>vert</t>
   </si>
   <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00210288</t>

--- a/publipostage2/0495fxg12/liste_essais_cliniques_identifies_0495fxg12.xlsx
+++ b/publipostage2/0495fxg12/liste_essais_cliniques_identifies_0495fxg12.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
   <si>
     <t>statut</t>
   </si>
   <si>
-    <t>statut_label</t>
-  </si>
-  <si>
     <t>statut_name</t>
   </si>
   <si>
@@ -43,43 +40,25 @@
     <t>acronym</t>
   </si>
   <si>
-    <t>results_1y</t>
-  </si>
-  <si>
-    <t>results_3y</t>
-  </si>
-  <si>
-    <t>results</t>
-  </si>
-  <si>
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⚠️</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>✅</t>
-  </si>
-  <si>
-    <t>noir</t>
-  </si>
-  <si>
-    <t>rouge</t>
-  </si>
-  <si>
-    <t>vert</t>
-  </si>
-  <si>
-    <t>pas de résultat postés ni publiés</t>
-  </si>
-  <si>
-    <t>résultat postés ou publiés</t>
-  </si>
-  <si>
-    <t>résultat postés ou publiés dans les 12 mois</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4: pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>3: résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>1: résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00210288</t>
@@ -620,13 +599,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,574 +633,370 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
+      <c r="F4" t="s">
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
+      <c r="F6" t="s">
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
       <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="I11" t="s">
         <v>72</v>
       </c>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="I12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" t="s">
         <v>73</v>
       </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" t="s">
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" t="s">
         <v>75</v>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" t="s">
-        <v>76</v>
-      </c>
-      <c r="J15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="b">
-        <v>1</v>
-      </c>
-      <c r="M15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>62</v>
-      </c>
-      <c r="I16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" t="s">
-        <v>63</v>
-      </c>
-      <c r="I17" t="s">
-        <v>78</v>
-      </c>
-      <c r="J17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/0495fxg12/liste_essais_cliniques_identifies_0495fxg12.xlsx
+++ b/publipostage2/0495fxg12/liste_essais_cliniques_identifies_0495fxg12.xlsx
@@ -79,24 +79,24 @@
     <t>NCT03282708</t>
   </si>
   <si>
+    <t>NCT02761122</t>
+  </si>
+  <si>
     <t>NCT02789995</t>
   </si>
   <si>
-    <t>NCT02761122</t>
-  </si>
-  <si>
     <t>NCT03210363</t>
   </si>
   <si>
+    <t>NCT03912246</t>
+  </si>
+  <si>
     <t>NCT04497298</t>
   </si>
   <si>
     <t>NCT04490850</t>
   </si>
   <si>
-    <t>NCT03912246</t>
-  </si>
-  <si>
     <t>NCT04328129</t>
   </si>
   <si>
@@ -157,24 +157,24 @@
     <t>Comparative Study of Captive Great Ape and Human Intestinal Microbiomes</t>
   </si>
   <si>
+    <t>Implication of Human Papillomavirus (HPV) in Lichen Physiopathology in Human</t>
+  </si>
+  <si>
     <t>Dysfunctions of Human Muscle Stem Cells in Sepsis</t>
   </si>
   <si>
-    <t>Implication of Human Papillomavirus (HPV) in Lichen Physiopathology in Human</t>
-  </si>
-  <si>
     <t>Sero-epidemiology of Priority Arboviruses in French Guiana</t>
   </si>
   <si>
+    <t>Collection d'échantillons Biologiques Humains de Sujets Sains et Malades Pour la Mise au Point et la Validation de Nouvelles méthodes de Diagnostic et Pour la réalisation d'Expertises Dans le Domaine Des Maladies Infectieuses et Tropicales</t>
+  </si>
+  <si>
     <t>A Randomized, Placebo-controlled Trial, to Evaluate the Safety and Immunogenicity of the COVID-19 Vaccine, a Measles Vector-based Vaccine Candidate Against COVID-19 in Healthy Volunteers Consisting of an Unblinded Dose Escalation and a Blinded Treatment Phase</t>
   </si>
   <si>
     <t>COVID-19 Seroprevalence Study in French Guiana</t>
   </si>
   <si>
-    <t>Collection d'échantillons Biologiques Humains de Sujets Sains et Malades Pour la Mise au Point et la Validation de Nouvelles méthodes de Diagnostic et Pour la réalisation d'Expertises Dans le Domaine Des Maladies Infectieuses et Tropicales</t>
-  </si>
-  <si>
     <t>Household Transmission Investigation Study for Coronavirus Disease 2019 (COVID-19) in Tropical Regions</t>
   </si>
   <si>
@@ -202,22 +202,22 @@
     <t>SHAPES-CAP</t>
   </si>
   <si>
+    <t>HPVLichen</t>
+  </si>
+  <si>
     <t>DISCUSS</t>
   </si>
   <si>
-    <t>HPVLichen</t>
-  </si>
-  <si>
     <t>EPI-ARBO</t>
   </si>
   <si>
+    <t>Diagmicoll</t>
+  </si>
+  <si>
     <t>COVID-19-101</t>
   </si>
   <si>
     <t>EPI-COVID-POP</t>
-  </si>
-  <si>
-    <t>Diagmicoll</t>
   </si>
   <si>
     <t>EPI-COVID-19</t>
@@ -771,10 +771,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -794,10 +794,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -840,10 +840,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -863,10 +863,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -881,7 +881,7 @@
         <v>66</v>
       </c>
       <c r="I12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -904,7 +904,7 @@
         <v>67</v>
       </c>
       <c r="I13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:9">

--- a/publipostage2/0495fxg12/liste_essais_cliniques_identifies_0495fxg12.xlsx
+++ b/publipostage2/0495fxg12/liste_essais_cliniques_identifies_0495fxg12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="80">
   <si>
     <t>statut</t>
   </si>
@@ -52,13 +52,13 @@
     <t>1</t>
   </si>
   <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00210288</t>
@@ -79,36 +79,42 @@
     <t>NCT03282708</t>
   </si>
   <si>
+    <t>NCT02789995</t>
+  </si>
+  <si>
     <t>NCT02761122</t>
   </si>
   <si>
-    <t>NCT02789995</t>
-  </si>
-  <si>
     <t>NCT03210363</t>
   </si>
   <si>
+    <t>NCT04490850</t>
+  </si>
+  <si>
     <t>NCT03912246</t>
   </si>
   <si>
     <t>NCT04497298</t>
   </si>
   <si>
-    <t>NCT04490850</t>
-  </si>
-  <si>
     <t>NCT04328129</t>
   </si>
   <si>
     <t>NCT02364492</t>
   </si>
   <si>
+    <t>NCT04029454</t>
+  </si>
+  <si>
     <t>NCT03219827</t>
   </si>
   <si>
     <t>NCT04789928</t>
   </si>
   <si>
+    <t>2020-002973-89</t>
+  </si>
+  <si>
     <t>2007</t>
   </si>
   <si>
@@ -157,30 +163,33 @@
     <t>Comparative Study of Captive Great Ape and Human Intestinal Microbiomes</t>
   </si>
   <si>
+    <t>Dysfunctions of Human Muscle Stem Cells in Sepsis</t>
+  </si>
+  <si>
     <t>Implication of Human Papillomavirus (HPV) in Lichen Physiopathology in Human</t>
   </si>
   <si>
-    <t>Dysfunctions of Human Muscle Stem Cells in Sepsis</t>
-  </si>
-  <si>
     <t>Sero-epidemiology of Priority Arboviruses in French Guiana</t>
   </si>
   <si>
+    <t>COVID-19 Seroprevalence Study in French Guiana</t>
+  </si>
+  <si>
     <t>Collection d'échantillons Biologiques Humains de Sujets Sains et Malades Pour la Mise au Point et la Validation de Nouvelles méthodes de Diagnostic et Pour la réalisation d'Expertises Dans le Domaine Des Maladies Infectieuses et Tropicales</t>
   </si>
   <si>
     <t>A Randomized, Placebo-controlled Trial, to Evaluate the Safety and Immunogenicity of the COVID-19 Vaccine, a Measles Vector-based Vaccine Candidate Against COVID-19 in Healthy Volunteers Consisting of an Unblinded Dose Escalation and a Blinded Treatment Phase</t>
   </si>
   <si>
-    <t>COVID-19 Seroprevalence Study in French Guiana</t>
-  </si>
-  <si>
     <t>Household Transmission Investigation Study for Coronavirus Disease 2019 (COVID-19) in Tropical Regions</t>
   </si>
   <si>
     <t>An Open Label First-in-Human Adjuvant Phase I Study of a Synthetic Multiple Antigenic Glycopeptide Displaying a Tri Tn Glycotop (MAG-Tn3) Plus AS15, as a Therapeutic Vaccine Candidate in Patients With Non Metastatic, HER2 Negative Localized Breast Cancer at High-Risk of Relapse</t>
   </si>
   <si>
+    <t>Neovac 2 Burkina Faso: Impact of the Integration of Hepatitis B Birth Dose Vaccine Into the Infant Immunization Schedule: a Mixed Methods Study Including a Cluster-randomized Trial, an Anthropological Study and an Economic Evaluation</t>
+  </si>
+  <si>
     <t>Pilot Study: Characterization of the Immune Phenotype of Patients Allergic to Wasp Venom or Penicillin</t>
   </si>
   <si>
@@ -202,28 +211,31 @@
     <t>SHAPES-CAP</t>
   </si>
   <si>
+    <t>DISCUSS</t>
+  </si>
+  <si>
     <t>HPVLichen</t>
   </si>
   <si>
-    <t>DISCUSS</t>
-  </si>
-  <si>
     <t>EPI-ARBO</t>
   </si>
   <si>
+    <t>EPI-COVID-POP</t>
+  </si>
+  <si>
     <t>Diagmicoll</t>
   </si>
   <si>
     <t>COVID-19-101</t>
   </si>
   <si>
-    <t>EPI-COVID-POP</t>
-  </si>
-  <si>
     <t>EPI-COVID-19</t>
   </si>
   <si>
     <t>MAGTRIVACSEIN</t>
+  </si>
+  <si>
+    <t>NEOVAC2BK</t>
   </si>
   <si>
     <t>WasPenIP</t>
@@ -599,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -645,13 +657,13 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -665,16 +677,16 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -688,16 +700,16 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -711,16 +723,16 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -734,16 +746,16 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -757,62 +769,62 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -826,16 +838,16 @@
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -849,62 +861,65 @@
         <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I11" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I12" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -918,16 +933,16 @@
         <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -941,39 +956,39 @@
         <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I15" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -987,16 +1002,39 @@
         <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" t="s">
         <v>75</v>
+      </c>
+      <c r="I18" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
